--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1813.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1813.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182694300085207</v>
+        <v>0.9736156463623047</v>
       </c>
       <c r="B1">
-        <v>2.304660099291707</v>
+        <v>1.440665364265442</v>
       </c>
       <c r="C1">
-        <v>3.356300594021552</v>
+        <v>5.798338890075684</v>
       </c>
       <c r="D1">
-        <v>3.460581393175966</v>
+        <v>1.697846651077271</v>
       </c>
       <c r="E1">
-        <v>1.15649946802915</v>
+        <v>1.045493960380554</v>
       </c>
     </row>
   </sheetData>
